--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>catalogVersion</t>
   </si>
@@ -287,9 +287,6 @@
     <t>песня могла быть посвящена сражению донских казаков с ногайцами в 1783 году, что ничем не подтверждается</t>
   </si>
   <si>
-    <t>атама́н</t>
-  </si>
-  <si>
     <t>Название военно-административных должностей в казачьих областях до революции и в казачьих войсках в старину.</t>
   </si>
   <si>
@@ -297,6 +294,21 @@
   </si>
   <si>
     <t>В России 15 - 17 веков: вольный человек, член военно-земледельческой общины поселенцев на окраинах государства</t>
+  </si>
+  <si>
+    <t>v_2</t>
+  </si>
+  <si>
+    <t>Как на дикий берег, да на Грозный Терек</t>
+  </si>
+  <si>
+    <t>станица</t>
+  </si>
+  <si>
+    <t>поселение казаков</t>
+  </si>
+  <si>
+    <t>атаман</t>
   </si>
 </sst>
 </file>
@@ -683,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -846,7 +858,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +910,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -921,10 +949,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +973,7 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,glossary_dict!$A:$B,2,FALSE)</f>
@@ -957,11 +985,23 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,glossary_dict!$A:$B,2,FALSE)</f>
         <v>В России 15 - 17 веков: вольный человек, член военно-земледельческой общины поселенцев на окраинах государства</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,glossary_dict!$A:$B,2,FALSE)</f>
+        <v>поселение казаков</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,18 +1029,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>80</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>catalogVersion</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>атаман</t>
+  </si>
+  <si>
+    <t>don_0001_minus.mp3</t>
+  </si>
+  <si>
+    <t>https://my.mail.ru/music/songs/%D0%BA%D1%83%D0%B1%D0%B0%D0%BD%D1%81%D0%BA%D0%B8%D0%B9-%D0%BA%D0%B0%D0%B7%D0%B0%D1%87%D0%B8%D0%B9-%D1%85%D0%BE%D1%80-%D0%BB%D1%8E%D0%B1%D0%BE-%D0%B1%D1%80%D0%B0%D1%82%D1%86%D1%8B-%D0%BB%D1%8E%D0%B1%D0%BE-47aecfab975c745d3a9d537b2ede566f</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +804,12 @@
       </c>
       <c r="K2" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
       </c>
       <c r="P2" t="s">
         <v>69</v>
@@ -951,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -311,10 +311,10 @@
     <t>атаман</t>
   </si>
   <si>
-    <t>don_0001_minus.mp3</t>
-  </si>
-  <si>
-    <t>https://my.mail.ru/music/songs/%D0%BA%D1%83%D0%B1%D0%B0%D0%BD%D1%81%D0%BA%D0%B8%D0%B9-%D0%BA%D0%B0%D0%B7%D0%B0%D1%87%D0%B8%D0%B9-%D1%85%D0%BE%D1%80-%D0%BB%D1%8E%D0%B1%D0%BE-%D0%B1%D1%80%D0%B0%D1%82%D1%86%D1%8B-%D0%BB%D1%8E%D0%B1%D0%BE-47aecfab975c745d3a9d537b2ede566f</t>
+    <t>https://disk.yandex.ru/d/4KNYk7VsvekV8w/download</t>
+  </si>
+  <si>
+    <t>https://moosic.my.mail.ru/file/47aecfab975c745d3a9d537b2ede566f.mp3</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,10 +805,10 @@
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P2" t="s">
@@ -859,9 +859,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -963,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>catalogVersion</t>
   </si>
@@ -311,10 +311,13 @@
     <t>атаман</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/d/4KNYk7VsvekV8w/download</t>
-  </si>
-  <si>
     <t>https://moosic.my.mail.ru/file/47aecfab975c745d3a9d537b2ede566f.mp3</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/4KNYk7VsvekV8w</t>
+  </si>
+  <si>
+    <t>Исполняется в различных регионах России</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +790,9 @@
       <c r="D2" t="s">
         <v>39</v>
       </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
@@ -806,10 +812,10 @@
         <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="P2" t="s">
         <v>69</v>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/input/istoki.xlsx
+++ b/input/istoki.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>catalogVersion</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Популярная казачья песня. Стала широко известной после исполнения в советском фильме 1942 года «Александр Пархоменко», как любимая песня Нестора Махно</t>
-  </si>
-  <si>
-    <t>Народная песня</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/%D0%9B%D1%8E%D0%B1%D0%BE,_%D0%B1%D1%80%D0%B0%D1%82%D1%86%D1%8B,_%D0%BB%D1%8E%D0%B1%D0%BE</t>
@@ -318,6 +315,12 @@
   </si>
   <si>
     <t>Исполняется в различных регионах России</t>
+  </si>
+  <si>
+    <t>Народная песня, минусовка - чья-то. На записи песню исполняем Московский казачий хор</t>
+  </si>
+  <si>
+    <t>найдена в интернете</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +708,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +782,7 @@
     </row>
     <row r="2" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -791,7 +794,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -809,19 +812,22 @@
         <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -915,36 +921,36 @@
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -990,10 +996,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,glossary_dict!$A:$B,2,FALSE)</f>
@@ -1002,10 +1008,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,glossary_dict!$A:$B,2,FALSE)</f>
@@ -1014,10 +1020,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,glossary_dict!$A:$B,2,FALSE)</f>
@@ -1049,26 +1055,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
